--- a/va_facility_data_2025-02-20/Lieutenant Colonel Charles S. Kettles VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lieutenant%20Colonel%20Charles%20S.%20Kettles%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lieutenant Colonel Charles S. Kettles VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lieutenant%20Colonel%20Charles%20S.%20Kettles%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R35a226cc19864be1bd6587b7a9ad4409"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R2f2597a366944f7d9926ebb4e80a995d"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd43288f2a8c3407381da8ca266e0a192"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rd5740684bb3f43a4bee89c32ff27d0c9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra065d6567fa34326b7417c2406d07c30"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R1fcca6c65e0f4a699980ccfa549ccf28"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R823129e56c134c97bc3ebfd7e4bf691e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rbbc458de39964ddc830d7324dee2dafd"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re8da4955e3b744eeb82c6c43c0eaac04"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R5383425542df4f2da839a4bc116695d8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf027e0bf62d7498ab5928d9d047b037e"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9d0ae4d441474bfca1db0389bf103114"/>
   </x:sheets>
 </x:workbook>
 </file>
